--- a/orders_test_data.xlsx
+++ b/orders_test_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
   </si>
   <si>
     <t>jane.smith@example.com</t>
@@ -465,16 +468,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <v>789.0</v>
       </c>
       <c r="E4" s="4">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +485,10 @@
         <v>4321.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>999.0</v>
@@ -494,7 +497,7 @@
         <v>-5.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +505,7 @@
         <v>8765.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -514,7 +517,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +525,7 @@
         <v>1111.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
         <v>123.0</v>
@@ -531,7 +534,7 @@
         <v>4.0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +542,10 @@
         <v>9999.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>567.0</v>
@@ -551,7 +554,7 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -559,10 +562,10 @@
         <v>8888.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>567.0</v>
@@ -571,7 +574,7 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -579,10 +582,10 @@
         <v>7777.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>567.0</v>
@@ -591,7 +594,7 @@
         <v>1.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -2345,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -2353,7 +2356,7 @@
         <v>567.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -2361,7 +2364,7 @@
         <v>789.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -2369,7 +2372,7 @@
         <v>123.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
